--- a/Excel-XLSX/UN-UKR.xlsx
+++ b/Excel-XLSX/UN-UKR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="1649">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5u42DT</t>
+    <t>KU5Ks7</t>
   </si>
   <si>
     <t>1994</t>
@@ -4821,12 +4821,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>ABW</t>
-  </si>
-  <si>
     <t>1291</t>
   </si>
   <si>
@@ -4935,12 +4929,12 @@
     <t>1326</t>
   </si>
   <si>
+    <t>10910</t>
+  </si>
+  <si>
     <t>1327</t>
   </si>
   <si>
-    <t>35760</t>
-  </si>
-  <si>
     <t>1328</t>
   </si>
   <si>
@@ -4956,22 +4950,19 @@
     <t>1332</t>
   </si>
   <si>
+    <t>3665000</t>
+  </si>
+  <si>
+    <t>782000</t>
+  </si>
+  <si>
+    <t>851644</t>
+  </si>
+  <si>
     <t>1333</t>
   </si>
   <si>
-    <t>3669000</t>
-  </si>
-  <si>
-    <t>571000</t>
-  </si>
-  <si>
-    <t>496124</t>
-  </si>
-  <si>
     <t>1334</t>
-  </si>
-  <si>
-    <t>1335</t>
   </si>
 </sst>
 </file>
@@ -5356,7 +5347,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1336"/>
+  <dimension ref="A1:V1335"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -93101,16 +93092,16 @@
         <v>1600</v>
       </c>
       <c r="F1291" s="2" t="s">
-        <v>403</v>
+        <v>25</v>
       </c>
       <c r="G1291" s="1" t="s">
-        <v>1601</v>
+        <v>26</v>
       </c>
       <c r="H1291" s="1" t="s">
-        <v>1602</v>
+        <v>27</v>
       </c>
       <c r="I1291" s="1" t="s">
-        <v>1602</v>
+        <v>27</v>
       </c>
       <c r="J1291" s="2" t="s">
         <v>28</v>
@@ -93125,10 +93116,10 @@
         <v>30</v>
       </c>
       <c r="N1291" s="2" t="s">
-        <v>156</v>
+        <v>1188</v>
       </c>
       <c r="O1291" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P1291" s="2" t="s">
         <v>32</v>
@@ -93163,22 +93154,22 @@
         <v>22</v>
       </c>
       <c r="D1292" s="2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E1292" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1292" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G1292" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H1292" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I1292" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J1292" s="2" t="s">
         <v>28</v>
@@ -93193,10 +93184,10 @@
         <v>30</v>
       </c>
       <c r="N1292" s="2" t="s">
-        <v>1158</v>
+        <v>98</v>
       </c>
       <c r="O1292" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P1292" s="2" t="s">
         <v>32</v>
@@ -93231,40 +93222,40 @@
         <v>22</v>
       </c>
       <c r="D1293" s="2" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E1293" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1293" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1293" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1293" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1293" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1293" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1293" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1293" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1293" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1293" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G1293" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1293" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1293" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1293" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1293" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1293" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1293" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1293" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1293" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P1293" s="2" t="s">
         <v>32</v>
@@ -93299,22 +93290,22 @@
         <v>22</v>
       </c>
       <c r="D1294" s="2" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E1294" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1294" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G1294" s="1" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="H1294" s="1" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="I1294" s="1" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="J1294" s="2" t="s">
         <v>28</v>
@@ -93329,10 +93320,10 @@
         <v>30</v>
       </c>
       <c r="N1294" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="O1294" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1294" s="2" t="s">
         <v>32</v>
@@ -93367,22 +93358,22 @@
         <v>22</v>
       </c>
       <c r="D1295" s="2" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E1295" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1295" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G1295" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H1295" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I1295" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J1295" s="2" t="s">
         <v>28</v>
@@ -93397,10 +93388,10 @@
         <v>30</v>
       </c>
       <c r="N1295" s="2" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="O1295" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P1295" s="2" t="s">
         <v>32</v>
@@ -93435,22 +93426,22 @@
         <v>22</v>
       </c>
       <c r="D1296" s="2" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E1296" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1296" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G1296" s="1" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="H1296" s="1" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="I1296" s="1" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="J1296" s="2" t="s">
         <v>28</v>
@@ -93465,10 +93456,10 @@
         <v>30</v>
       </c>
       <c r="N1296" s="2" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="O1296" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P1296" s="2" t="s">
         <v>32</v>
@@ -93503,22 +93494,22 @@
         <v>22</v>
       </c>
       <c r="D1297" s="2" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E1297" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1297" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G1297" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H1297" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I1297" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J1297" s="2" t="s">
         <v>28</v>
@@ -93533,10 +93524,10 @@
         <v>30</v>
       </c>
       <c r="N1297" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O1297" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="P1297" s="2" t="s">
         <v>32</v>
@@ -93571,22 +93562,22 @@
         <v>22</v>
       </c>
       <c r="D1298" s="2" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E1298" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1298" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G1298" s="1" t="s">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="H1298" s="1" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="I1298" s="1" t="s">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="J1298" s="2" t="s">
         <v>28</v>
@@ -93601,10 +93592,10 @@
         <v>30</v>
       </c>
       <c r="N1298" s="2" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="O1298" s="2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="P1298" s="2" t="s">
         <v>32</v>
@@ -93639,22 +93630,22 @@
         <v>22</v>
       </c>
       <c r="D1299" s="2" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E1299" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1299" s="2" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="G1299" s="1" t="s">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="H1299" s="1" t="s">
-        <v>497</v>
+        <v>408</v>
       </c>
       <c r="I1299" s="1" t="s">
-        <v>497</v>
+        <v>409</v>
       </c>
       <c r="J1299" s="2" t="s">
         <v>28</v>
@@ -93669,10 +93660,10 @@
         <v>30</v>
       </c>
       <c r="N1299" s="2" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="O1299" s="2" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="P1299" s="2" t="s">
         <v>32</v>
@@ -93707,22 +93698,22 @@
         <v>22</v>
       </c>
       <c r="D1300" s="2" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E1300" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1300" s="2" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="G1300" s="1" t="s">
-        <v>407</v>
+        <v>87</v>
       </c>
       <c r="H1300" s="1" t="s">
-        <v>408</v>
+        <v>88</v>
       </c>
       <c r="I1300" s="1" t="s">
-        <v>409</v>
+        <v>88</v>
       </c>
       <c r="J1300" s="2" t="s">
         <v>28</v>
@@ -93737,10 +93728,10 @@
         <v>30</v>
       </c>
       <c r="N1300" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O1300" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="P1300" s="2" t="s">
         <v>32</v>
@@ -93775,22 +93766,22 @@
         <v>22</v>
       </c>
       <c r="D1301" s="2" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E1301" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1301" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1301" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H1301" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I1301" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J1301" s="2" t="s">
         <v>28</v>
@@ -93805,10 +93796,10 @@
         <v>30</v>
       </c>
       <c r="N1301" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="O1301" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="P1301" s="2" t="s">
         <v>32</v>
@@ -93843,22 +93834,22 @@
         <v>22</v>
       </c>
       <c r="D1302" s="2" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E1302" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1302" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1302" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H1302" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I1302" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J1302" s="2" t="s">
         <v>28</v>
@@ -93873,7 +93864,7 @@
         <v>30</v>
       </c>
       <c r="N1302" s="2" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="O1302" s="2" t="s">
         <v>32</v>
@@ -93911,22 +93902,22 @@
         <v>22</v>
       </c>
       <c r="D1303" s="2" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E1303" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1303" s="2" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="G1303" s="1" t="s">
-        <v>95</v>
+        <v>547</v>
       </c>
       <c r="H1303" s="1" t="s">
-        <v>96</v>
+        <v>548</v>
       </c>
       <c r="I1303" s="1" t="s">
-        <v>96</v>
+        <v>549</v>
       </c>
       <c r="J1303" s="2" t="s">
         <v>28</v>
@@ -93944,7 +93935,7 @@
         <v>71</v>
       </c>
       <c r="O1303" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1303" s="2" t="s">
         <v>32</v>
@@ -93979,22 +93970,22 @@
         <v>22</v>
       </c>
       <c r="D1304" s="2" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E1304" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1304" s="2" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="G1304" s="1" t="s">
-        <v>547</v>
+        <v>100</v>
       </c>
       <c r="H1304" s="1" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="I1304" s="1" t="s">
-        <v>549</v>
+        <v>101</v>
       </c>
       <c r="J1304" s="2" t="s">
         <v>28</v>
@@ -94009,10 +94000,10 @@
         <v>30</v>
       </c>
       <c r="N1304" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="O1304" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1304" s="2" t="s">
         <v>32</v>
@@ -94047,22 +94038,22 @@
         <v>22</v>
       </c>
       <c r="D1305" s="2" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E1305" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1305" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G1305" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H1305" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I1305" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J1305" s="2" t="s">
         <v>28</v>
@@ -94077,10 +94068,10 @@
         <v>30</v>
       </c>
       <c r="N1305" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="O1305" s="2" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="P1305" s="2" t="s">
         <v>32</v>
@@ -94115,22 +94106,22 @@
         <v>22</v>
       </c>
       <c r="D1306" s="2" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E1306" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1306" s="2" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="G1306" s="1" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="H1306" s="1" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="I1306" s="1" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="J1306" s="2" t="s">
         <v>28</v>
@@ -94145,10 +94136,10 @@
         <v>30</v>
       </c>
       <c r="N1306" s="2" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="O1306" s="2" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="P1306" s="2" t="s">
         <v>32</v>
@@ -94183,22 +94174,22 @@
         <v>22</v>
       </c>
       <c r="D1307" s="2" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E1307" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1307" s="2" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="G1307" s="1" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="H1307" s="1" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="I1307" s="1" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="J1307" s="2" t="s">
         <v>28</v>
@@ -94213,10 +94204,10 @@
         <v>30</v>
       </c>
       <c r="N1307" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="O1307" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P1307" s="2" t="s">
         <v>32</v>
@@ -94251,22 +94242,22 @@
         <v>22</v>
       </c>
       <c r="D1308" s="2" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E1308" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1308" s="2" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="G1308" s="1" t="s">
-        <v>164</v>
+        <v>557</v>
       </c>
       <c r="H1308" s="1" t="s">
-        <v>165</v>
+        <v>558</v>
       </c>
       <c r="I1308" s="1" t="s">
-        <v>165</v>
+        <v>559</v>
       </c>
       <c r="J1308" s="2" t="s">
         <v>28</v>
@@ -94281,10 +94272,10 @@
         <v>30</v>
       </c>
       <c r="N1308" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O1308" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P1308" s="2" t="s">
         <v>32</v>
@@ -94319,22 +94310,22 @@
         <v>22</v>
       </c>
       <c r="D1309" s="2" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E1309" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1309" s="2" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="G1309" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H1309" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="I1309" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J1309" s="2" t="s">
         <v>28</v>
@@ -94349,10 +94340,10 @@
         <v>30</v>
       </c>
       <c r="N1309" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O1309" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P1309" s="2" t="s">
         <v>32</v>
@@ -94387,22 +94378,22 @@
         <v>22</v>
       </c>
       <c r="D1310" s="2" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E1310" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1310" s="2" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="G1310" s="1" t="s">
-        <v>561</v>
+        <v>111</v>
       </c>
       <c r="H1310" s="1" t="s">
-        <v>562</v>
+        <v>112</v>
       </c>
       <c r="I1310" s="1" t="s">
-        <v>563</v>
+        <v>112</v>
       </c>
       <c r="J1310" s="2" t="s">
         <v>28</v>
@@ -94417,10 +94408,10 @@
         <v>30</v>
       </c>
       <c r="N1310" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="O1310" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P1310" s="2" t="s">
         <v>32</v>
@@ -94455,22 +94446,22 @@
         <v>22</v>
       </c>
       <c r="D1311" s="2" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E1311" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1311" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1311" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1311" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I1311" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J1311" s="2" t="s">
         <v>28</v>
@@ -94485,10 +94476,10 @@
         <v>30</v>
       </c>
       <c r="N1311" s="2" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="O1311" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="P1311" s="2" t="s">
         <v>32</v>
@@ -94523,22 +94514,22 @@
         <v>22</v>
       </c>
       <c r="D1312" s="2" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E1312" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="G1312" s="1" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="H1312" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="I1312" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="J1312" s="2" t="s">
         <v>28</v>
@@ -94553,10 +94544,10 @@
         <v>30</v>
       </c>
       <c r="N1312" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="O1312" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="P1312" s="2" t="s">
         <v>32</v>
@@ -94591,22 +94582,22 @@
         <v>22</v>
       </c>
       <c r="D1313" s="2" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="E1313" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1313" s="2" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="G1313" s="1" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="H1313" s="1" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="I1313" s="1" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="J1313" s="2" t="s">
         <v>28</v>
@@ -94621,10 +94612,10 @@
         <v>30</v>
       </c>
       <c r="N1313" s="2" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="O1313" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="P1313" s="2" t="s">
         <v>32</v>
@@ -94659,22 +94650,22 @@
         <v>22</v>
       </c>
       <c r="D1314" s="2" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E1314" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1314" s="2" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="G1314" s="1" t="s">
-        <v>240</v>
+        <v>415</v>
       </c>
       <c r="H1314" s="1" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="I1314" s="1" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="J1314" s="2" t="s">
         <v>28</v>
@@ -94689,10 +94680,10 @@
         <v>30</v>
       </c>
       <c r="N1314" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="O1314" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P1314" s="2" t="s">
         <v>32</v>
@@ -94727,22 +94718,22 @@
         <v>22</v>
       </c>
       <c r="D1315" s="2" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E1315" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1315" s="2" t="s">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="G1315" s="1" t="s">
-        <v>415</v>
+        <v>244</v>
       </c>
       <c r="H1315" s="1" t="s">
-        <v>416</v>
+        <v>245</v>
       </c>
       <c r="I1315" s="1" t="s">
-        <v>416</v>
+        <v>245</v>
       </c>
       <c r="J1315" s="2" t="s">
         <v>28</v>
@@ -94757,10 +94748,10 @@
         <v>30</v>
       </c>
       <c r="N1315" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="O1315" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="P1315" s="2" t="s">
         <v>32</v>
@@ -94795,22 +94786,22 @@
         <v>22</v>
       </c>
       <c r="D1316" s="2" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="E1316" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1316" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G1316" s="1" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="H1316" s="1" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="I1316" s="1" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="J1316" s="2" t="s">
         <v>28</v>
@@ -94825,7 +94816,7 @@
         <v>30</v>
       </c>
       <c r="N1316" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O1316" s="2" t="s">
         <v>32</v>
@@ -94863,22 +94854,22 @@
         <v>22</v>
       </c>
       <c r="D1317" s="2" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="E1317" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1317" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="G1317" s="1" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="H1317" s="1" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="I1317" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="J1317" s="2" t="s">
         <v>28</v>
@@ -94893,10 +94884,10 @@
         <v>30</v>
       </c>
       <c r="N1317" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="O1317" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="P1317" s="2" t="s">
         <v>32</v>
@@ -94931,22 +94922,22 @@
         <v>22</v>
       </c>
       <c r="D1318" s="2" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E1318" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1318" s="2" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="G1318" s="1" t="s">
-        <v>47</v>
+        <v>1037</v>
       </c>
       <c r="H1318" s="1" t="s">
-        <v>48</v>
+        <v>1038</v>
       </c>
       <c r="I1318" s="1" t="s">
-        <v>48</v>
+        <v>1039</v>
       </c>
       <c r="J1318" s="2" t="s">
         <v>28</v>
@@ -94961,10 +94952,10 @@
         <v>30</v>
       </c>
       <c r="N1318" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1318" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="O1318" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="P1318" s="2" t="s">
         <v>32</v>
@@ -94999,22 +94990,22 @@
         <v>22</v>
       </c>
       <c r="D1319" s="2" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E1319" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1319" s="2" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="G1319" s="1" t="s">
-        <v>1037</v>
+        <v>130</v>
       </c>
       <c r="H1319" s="1" t="s">
-        <v>1038</v>
+        <v>131</v>
       </c>
       <c r="I1319" s="1" t="s">
-        <v>1039</v>
+        <v>132</v>
       </c>
       <c r="J1319" s="2" t="s">
         <v>28</v>
@@ -95029,10 +95020,10 @@
         <v>30</v>
       </c>
       <c r="N1319" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O1319" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="P1319" s="2" t="s">
         <v>32</v>
@@ -95067,22 +95058,22 @@
         <v>22</v>
       </c>
       <c r="D1320" s="2" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E1320" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1320" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="G1320" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="H1320" s="1" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="I1320" s="1" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="J1320" s="2" t="s">
         <v>28</v>
@@ -95097,10 +95088,10 @@
         <v>30</v>
       </c>
       <c r="N1320" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O1320" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="P1320" s="2" t="s">
         <v>32</v>
@@ -95135,22 +95126,22 @@
         <v>22</v>
       </c>
       <c r="D1321" s="2" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E1321" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1321" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G1321" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H1321" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I1321" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J1321" s="2" t="s">
         <v>28</v>
@@ -95165,10 +95156,10 @@
         <v>30</v>
       </c>
       <c r="N1321" s="2" t="s">
-        <v>71</v>
+        <v>342</v>
       </c>
       <c r="O1321" s="2" t="s">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="P1321" s="2" t="s">
         <v>32</v>
@@ -95203,22 +95194,22 @@
         <v>22</v>
       </c>
       <c r="D1322" s="2" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E1322" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1322" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G1322" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H1322" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I1322" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J1322" s="2" t="s">
         <v>28</v>
@@ -95233,10 +95224,10 @@
         <v>30</v>
       </c>
       <c r="N1322" s="2" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="O1322" s="2" t="s">
-        <v>335</v>
+        <v>51</v>
       </c>
       <c r="P1322" s="2" t="s">
         <v>32</v>
@@ -95271,22 +95262,22 @@
         <v>22</v>
       </c>
       <c r="D1323" s="2" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="E1323" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1323" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G1323" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H1323" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I1323" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J1323" s="2" t="s">
         <v>28</v>
@@ -95301,10 +95292,10 @@
         <v>30</v>
       </c>
       <c r="N1323" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O1323" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P1323" s="2" t="s">
         <v>32</v>
@@ -95339,22 +95330,22 @@
         <v>22</v>
       </c>
       <c r="D1324" s="2" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E1324" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1324" s="2" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="G1324" s="1" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="H1324" s="1" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="I1324" s="1" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="J1324" s="2" t="s">
         <v>28</v>
@@ -95369,10 +95360,10 @@
         <v>30</v>
       </c>
       <c r="N1324" s="2" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="O1324" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1324" s="2" t="s">
         <v>32</v>
@@ -95407,22 +95398,22 @@
         <v>22</v>
       </c>
       <c r="D1325" s="2" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E1325" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1325" s="2" t="s">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="G1325" s="1" t="s">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="H1325" s="1" t="s">
-        <v>54</v>
+        <v>297</v>
       </c>
       <c r="I1325" s="1" t="s">
-        <v>54</v>
+        <v>297</v>
       </c>
       <c r="J1325" s="2" t="s">
         <v>28</v>
@@ -95437,10 +95428,10 @@
         <v>30</v>
       </c>
       <c r="N1325" s="2" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="O1325" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1325" s="2" t="s">
         <v>32</v>
@@ -95475,22 +95466,22 @@
         <v>22</v>
       </c>
       <c r="D1326" s="2" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E1326" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1326" s="2" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="G1326" s="1" t="s">
-        <v>296</v>
+        <v>423</v>
       </c>
       <c r="H1326" s="1" t="s">
-        <v>297</v>
+        <v>424</v>
       </c>
       <c r="I1326" s="1" t="s">
-        <v>297</v>
+        <v>425</v>
       </c>
       <c r="J1326" s="2" t="s">
         <v>28</v>
@@ -95505,10 +95496,10 @@
         <v>30</v>
       </c>
       <c r="N1326" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O1326" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="P1326" s="2" t="s">
         <v>32</v>
@@ -95543,22 +95534,22 @@
         <v>22</v>
       </c>
       <c r="D1327" s="2" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E1327" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1327" s="2" t="s">
-        <v>350</v>
+        <v>196</v>
       </c>
       <c r="G1327" s="1" t="s">
-        <v>423</v>
+        <v>197</v>
       </c>
       <c r="H1327" s="1" t="s">
-        <v>424</v>
+        <v>198</v>
       </c>
       <c r="I1327" s="1" t="s">
-        <v>425</v>
+        <v>199</v>
       </c>
       <c r="J1327" s="2" t="s">
         <v>28</v>
@@ -95573,10 +95564,10 @@
         <v>30</v>
       </c>
       <c r="N1327" s="2" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="O1327" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="P1327" s="2" t="s">
         <v>32</v>
@@ -95588,7 +95579,7 @@
         <v>32</v>
       </c>
       <c r="S1327" s="2" t="s">
-        <v>32</v>
+        <v>1637</v>
       </c>
       <c r="T1327" s="2" t="s">
         <v>32</v>
@@ -95611,22 +95602,22 @@
         <v>22</v>
       </c>
       <c r="D1328" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E1328" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1328" s="2" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="G1328" s="1" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="H1328" s="1" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="I1328" s="1" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="J1328" s="2" t="s">
         <v>28</v>
@@ -95641,7 +95632,7 @@
         <v>30</v>
       </c>
       <c r="N1328" s="2" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="O1328" s="2" t="s">
         <v>51</v>
@@ -95656,7 +95647,7 @@
         <v>32</v>
       </c>
       <c r="S1328" s="2" t="s">
-        <v>1640</v>
+        <v>32</v>
       </c>
       <c r="T1328" s="2" t="s">
         <v>32</v>
@@ -95679,22 +95670,22 @@
         <v>22</v>
       </c>
       <c r="D1329" s="2" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E1329" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1329" s="2" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="G1329" s="1" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="H1329" s="1" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="I1329" s="1" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="J1329" s="2" t="s">
         <v>28</v>
@@ -95709,10 +95700,10 @@
         <v>30</v>
       </c>
       <c r="N1329" s="2" t="s">
-        <v>109</v>
+        <v>737</v>
       </c>
       <c r="O1329" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="P1329" s="2" t="s">
         <v>32</v>
@@ -95747,22 +95738,22 @@
         <v>22</v>
       </c>
       <c r="D1330" s="2" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="E1330" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1330" s="2" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="G1330" s="1" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="H1330" s="1" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="I1330" s="1" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="J1330" s="2" t="s">
         <v>28</v>
@@ -95777,10 +95768,10 @@
         <v>30</v>
       </c>
       <c r="N1330" s="2" t="s">
-        <v>733</v>
+        <v>109</v>
       </c>
       <c r="O1330" s="2" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="P1330" s="2" t="s">
         <v>32</v>
@@ -95815,22 +95806,22 @@
         <v>22</v>
       </c>
       <c r="D1331" s="2" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E1331" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1331" s="2" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="G1331" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="H1331" s="1" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="I1331" s="1" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="J1331" s="2" t="s">
         <v>28</v>
@@ -95845,10 +95836,10 @@
         <v>30</v>
       </c>
       <c r="N1331" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="O1331" s="2" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="P1331" s="2" t="s">
         <v>32</v>
@@ -95883,22 +95874,22 @@
         <v>22</v>
       </c>
       <c r="D1332" s="2" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="E1332" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1332" s="2" t="s">
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="G1332" s="1" t="s">
-        <v>270</v>
+        <v>433</v>
       </c>
       <c r="H1332" s="1" t="s">
-        <v>271</v>
+        <v>434</v>
       </c>
       <c r="I1332" s="1" t="s">
-        <v>271</v>
+        <v>434</v>
       </c>
       <c r="J1332" s="2" t="s">
         <v>28</v>
@@ -95913,7 +95904,7 @@
         <v>30</v>
       </c>
       <c r="N1332" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O1332" s="2" t="s">
         <v>32</v>
@@ -95951,22 +95942,22 @@
         <v>22</v>
       </c>
       <c r="D1333" s="2" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="E1333" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1333" s="2" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="G1333" s="1" t="s">
-        <v>433</v>
+        <v>29</v>
       </c>
       <c r="H1333" s="1" t="s">
-        <v>434</v>
+        <v>30</v>
       </c>
       <c r="I1333" s="1" t="s">
-        <v>434</v>
+        <v>30</v>
       </c>
       <c r="J1333" s="2" t="s">
         <v>28</v>
@@ -95981,25 +95972,25 @@
         <v>30</v>
       </c>
       <c r="N1333" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O1333" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1333" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q1333" s="2" t="s">
-        <v>32</v>
+        <v>1644</v>
       </c>
       <c r="R1333" s="2" t="s">
-        <v>32</v>
+        <v>1645</v>
       </c>
       <c r="S1333" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T1333" s="2" t="s">
-        <v>32</v>
+        <v>1646</v>
       </c>
       <c r="U1333" s="1" t="s">
         <v>33</v>
@@ -96019,22 +96010,22 @@
         <v>22</v>
       </c>
       <c r="D1334" s="2" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="E1334" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1334" s="2" t="s">
-        <v>28</v>
+        <v>379</v>
       </c>
       <c r="G1334" s="1" t="s">
-        <v>29</v>
+        <v>484</v>
       </c>
       <c r="H1334" s="1" t="s">
-        <v>30</v>
+        <v>485</v>
       </c>
       <c r="I1334" s="1" t="s">
-        <v>30</v>
+        <v>485</v>
       </c>
       <c r="J1334" s="2" t="s">
         <v>28</v>
@@ -96049,25 +96040,25 @@
         <v>30</v>
       </c>
       <c r="N1334" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="O1334" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P1334" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q1334" s="2" t="s">
-        <v>1647</v>
+        <v>32</v>
       </c>
       <c r="R1334" s="2" t="s">
-        <v>1648</v>
+        <v>32</v>
       </c>
       <c r="S1334" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T1334" s="2" t="s">
-        <v>1649</v>
+        <v>32</v>
       </c>
       <c r="U1334" s="1" t="s">
         <v>33</v>
@@ -96087,22 +96078,22 @@
         <v>22</v>
       </c>
       <c r="D1335" s="2" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E1335" s="2" t="s">
         <v>1600</v>
       </c>
       <c r="F1335" s="2" t="s">
-        <v>379</v>
+        <v>118</v>
       </c>
       <c r="G1335" s="1" t="s">
-        <v>484</v>
+        <v>207</v>
       </c>
       <c r="H1335" s="1" t="s">
-        <v>485</v>
+        <v>208</v>
       </c>
       <c r="I1335" s="1" t="s">
-        <v>485</v>
+        <v>208</v>
       </c>
       <c r="J1335" s="2" t="s">
         <v>28</v>
@@ -96117,10 +96108,10 @@
         <v>30</v>
       </c>
       <c r="N1335" s="2" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="O1335" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="P1335" s="2" t="s">
         <v>32</v>
@@ -96141,74 +96132,6 @@
         <v>33</v>
       </c>
       <c r="V1335" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1336">
-      <c r="A1336" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1336" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1336" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1336" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E1336" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="F1336" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1336" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1336" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1336" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1336" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1336" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1336" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1336" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1336" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1336" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1336" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1336" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1336" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1336" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1336" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1336" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1336" s="2" t="s">
         <v>32</v>
       </c>
     </row>
